--- a/ds_ruidosa.xlsx
+++ b/ds_ruidosa.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\My Drive\Rafael\UniFai\documentação\cicfai\MC-DataScience_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C086BF-5F47-4967-8D1D-2B12D893824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41F610-3C1E-4594-A137-A0734E3D995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="780" windowWidth="17535" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1178,7 +1189,7 @@
   <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1330,7 @@
         <v>13.74</v>
       </c>
       <c r="E6">
-        <v>71.34</v>
+        <v>43.24</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>

--- a/ds_ruidosa.xlsx
+++ b/ds_ruidosa.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\My Drive\Rafael\UniFai\documentação\cicfai\MC-DataScience_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41F610-3C1E-4594-A137-A0734E3D995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05084E8-BF95-422E-90B7-EA10BBBB3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="780" windowWidth="17535" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$300</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1189,7 +1193,7 @@
   <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ds_ruidosa.xlsx
+++ b/ds_ruidosa.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\My Drive\Rafael\UniFai\documentação\cicfai\MC-DataScience_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05084E8-BF95-422E-90B7-EA10BBBB3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB764E6-E87D-4F1C-A3A2-6D10A35A6E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37245" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$300</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="266">
   <si>
     <t>Data</t>
   </si>
@@ -827,13 +823,22 @@
   </si>
   <si>
     <t>Pacaembu</t>
+  </si>
+  <si>
+    <t>Valor investido</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +851,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -883,11 +896,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,9 +1218,10 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,8 +1243,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1269,11 @@
       <c r="G2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>425255.02240000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>898208.63080000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1296,8 +1321,11 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>57730.0412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1319,8 +1347,11 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>588118.64799999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1342,8 +1373,11 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>425255.02240000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1362,8 +1396,11 @@
       <c r="G7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>474133.77960000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>380310.1692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1408,8 +1448,11 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>341561.21479999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1431,8 +1474,11 @@
       <c r="G10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>910895.47120000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1500,11 @@
       <c r="G11" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>718429.21799999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1477,8 +1526,11 @@
       <c r="G12" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>738492.12840000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1500,8 +1552,11 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>785895.6716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1523,8 +1578,11 @@
       <c r="G14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>505211.62119999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1546,8 +1604,11 @@
       <c r="G15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <v>27734.0232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1569,8 +1630,11 @@
       <c r="G16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>217741.5864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>923483.96400000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1615,8 +1682,11 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <v>509440.56799999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1638,8 +1708,11 @@
       <c r="G19" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <v>945120.43599999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1661,8 +1734,11 @@
       <c r="G20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <v>63827.592400000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1684,8 +1760,11 @@
       <c r="G21" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <v>288650.20600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1707,8 +1786,11 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <v>597264.97479999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1730,8 +1812,11 @@
       <c r="G23" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>544452.31359999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1753,8 +1838,11 @@
       <c r="G24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <v>626965.95000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1767,17 +1855,17 @@
       <c r="D25">
         <v>68.209999999999994</v>
       </c>
-      <c r="E25">
-        <v>28.93</v>
-      </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <v>284519.60680000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1799,8 +1887,11 @@
       <c r="G26" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <v>109952.6168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1822,8 +1913,11 @@
       <c r="G27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>455742.77840000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1845,8 +1939,11 @@
       <c r="G28" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>641128.00439999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1865,8 +1962,11 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>263768.26319999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1888,8 +1988,11 @@
       <c r="G30" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>269123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1911,8 +2014,11 @@
       <c r="G31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>741934.29440000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1934,8 +2040,11 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>181451.32199999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1957,8 +2066,11 @@
       <c r="G33" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>403126.81240000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1980,8 +2092,11 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <v>673681.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2003,8 +2118,11 @@
       <c r="G35" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <v>137293.24960000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2026,8 +2144,11 @@
       <c r="G36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <v>432139.35440000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2049,8 +2170,11 @@
       <c r="G37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <v>586348.39119999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2072,8 +2196,11 @@
       <c r="G38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <v>118115.4676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -2095,8 +2222,11 @@
       <c r="G39" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <v>565105.30960000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2118,8 +2248,11 @@
       <c r="G40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <v>25373.680800000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2141,8 +2274,11 @@
       <c r="G41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <v>702398.55920000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2164,8 +2300,11 @@
       <c r="G42" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="2">
+        <v>479542.89759999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2187,8 +2326,11 @@
       <c r="G43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <v>679876.95880000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2210,8 +2352,11 @@
       <c r="G44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <v>393.3904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2233,8 +2378,11 @@
       <c r="G45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <v>779798.12040000013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2256,8 +2404,11 @@
       <c r="G46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <v>370377.06159999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2267,8 +2418,8 @@
       <c r="C47">
         <v>27.78</v>
       </c>
-      <c r="D47">
-        <v>70.459999999999994</v>
+      <c r="D47" t="s">
+        <v>265</v>
       </c>
       <c r="E47">
         <v>56.97</v>
@@ -2279,8 +2430,11 @@
       <c r="G47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2">
+        <v>560286.27720000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2302,8 +2456,11 @@
       <c r="G48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2">
+        <v>84972.326400000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2325,8 +2482,11 @@
       <c r="G49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
+        <v>565990.43799999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2348,8 +2508,11 @@
       <c r="G50" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="2">
+        <v>613590.6764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2371,8 +2534,11 @@
       <c r="G51" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="2">
+        <v>619196.48959999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -2394,8 +2560,11 @@
       <c r="G52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="2">
+        <v>422206.24680000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2417,8 +2586,11 @@
       <c r="G53" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="2">
+        <v>574251.63640000008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2440,8 +2612,11 @@
       <c r="G54" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2">
+        <v>325530.55600000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2463,8 +2638,11 @@
       <c r="G55" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="2">
+        <v>546222.57039999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2486,8 +2664,11 @@
       <c r="G56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="2">
+        <v>218430.0196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2509,8 +2690,11 @@
       <c r="G57" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="2">
+        <v>693055.53720000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2532,8 +2716,11 @@
       <c r="G58" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2">
+        <v>18194.306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2555,8 +2742,11 @@
       <c r="G59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2">
+        <v>471478.39439999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2578,8 +2768,11 @@
       <c r="G60" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="2">
+        <v>238984.66800000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2601,8 +2794,11 @@
       <c r="G61" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2">
+        <v>803008.1540000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -2624,8 +2820,11 @@
       <c r="G62" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2">
+        <v>107690.62199999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2846,11 @@
       <c r="G63" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="2">
+        <v>785108.89080000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2670,8 +2872,11 @@
       <c r="G64" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="2">
+        <v>471380.04680000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2898,11 @@
       <c r="G65" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="2">
+        <v>907945.04319999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -2713,8 +2921,11 @@
       <c r="G66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="2">
+        <v>838806.68040000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2736,8 +2947,11 @@
       <c r="G67" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="2">
+        <v>75727.652000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -2759,8 +2973,11 @@
       <c r="G68" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="2">
+        <v>743802.89879999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2782,8 +2999,11 @@
       <c r="G69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="2">
+        <v>255802.10760000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2805,8 +3025,11 @@
       <c r="G70" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="2">
+        <v>149783.39480000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2828,8 +3051,11 @@
       <c r="G71" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="2">
+        <v>935088.98080000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3077,11 @@
       <c r="G72" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="2">
+        <v>499114.07</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2874,8 +3103,11 @@
       <c r="G73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="2">
+        <v>749408.71200000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2897,8 +3129,11 @@
       <c r="G74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="2">
+        <v>756194.69640000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2920,8 +3155,11 @@
       <c r="G75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="2">
+        <v>644865.2132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2943,8 +3181,11 @@
       <c r="G76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="2">
+        <v>409224.36359999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2963,8 +3204,11 @@
       <c r="G77" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="2">
+        <v>188138.95879999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2986,8 +3230,11 @@
       <c r="G78" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="2">
+        <v>581234.31599999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3256,11 @@
       <c r="G79" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="2">
+        <v>838708.33279999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3282,11 @@
       <c r="G80" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="2">
+        <v>521635.6704</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3055,8 +3308,11 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="2">
+        <v>900077.2352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -3078,8 +3334,11 @@
       <c r="G82" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="2">
+        <v>565990.43799999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -3101,8 +3360,11 @@
       <c r="G83" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="2">
+        <v>654208.2352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -3124,8 +3386,11 @@
       <c r="G84" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="2">
+        <v>733574.74840000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -3147,8 +3412,11 @@
       <c r="G85" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="2">
+        <v>478461.07400000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3170,8 +3438,11 @@
       <c r="G86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="2">
+        <v>404011.94079999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -3193,8 +3464,11 @@
       <c r="G87" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="2">
+        <v>982197.48120000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -3216,8 +3490,11 @@
       <c r="G88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="2">
+        <v>105231.932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -3239,8 +3516,11 @@
       <c r="G89" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="2">
+        <v>480231.3308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -3262,8 +3542,11 @@
       <c r="G90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="2">
+        <v>616442.75679999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -3285,8 +3568,11 @@
       <c r="G91" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="2">
+        <v>112312.9592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -3308,8 +3594,11 @@
       <c r="G92" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="2">
+        <v>232493.72640000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -3331,8 +3620,11 @@
       <c r="G93" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="2">
+        <v>276258.40840000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -3354,8 +3646,11 @@
       <c r="G94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="2">
+        <v>823464.45480000007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -3377,8 +3672,11 @@
       <c r="G95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="2">
+        <v>1081.8235999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3400,8 +3698,11 @@
       <c r="G96" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="2">
+        <v>82513.636400000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -3414,17 +3715,17 @@
       <c r="D97">
         <v>54.68</v>
       </c>
-      <c r="E97">
-        <v>27.06</v>
-      </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="2">
+        <v>266128.60560000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -3446,8 +3747,11 @@
       <c r="G98" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="2">
+        <v>436564.9964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -3469,8 +3773,11 @@
       <c r="G99" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2">
+        <v>368311.76200000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -3492,8 +3799,11 @@
       <c r="G100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="2">
+        <v>949251.03519999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -3512,8 +3822,11 @@
       <c r="G101" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="2">
+        <v>486722.27240000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -3535,8 +3848,11 @@
       <c r="G102" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="2">
+        <v>108870.7932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3558,8 +3874,11 @@
       <c r="G103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="2">
+        <v>421222.7708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -3581,8 +3900,11 @@
       <c r="G104" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="2">
+        <v>283929.52120000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3604,8 +3926,11 @@
       <c r="G105" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="2">
+        <v>71302.009999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -3627,8 +3952,11 @@
       <c r="G106" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="2">
+        <v>923385.61640000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -3650,8 +3978,11 @@
       <c r="G107" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="2">
+        <v>706135.76800000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -3673,8 +4004,11 @@
       <c r="G108" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="2">
+        <v>363886.12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3696,8 +4030,11 @@
       <c r="G109" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="2">
+        <v>458594.85880000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3719,8 +4056,11 @@
       <c r="G110" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="2">
+        <v>342643.03840000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -3742,8 +4082,11 @@
       <c r="G111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="2">
+        <v>213119.24920000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3765,8 +4108,11 @@
       <c r="G112" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="2">
+        <v>486328.88200000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3788,8 +4134,11 @@
       <c r="G113" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="2">
+        <v>491836.34759999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3811,8 +4160,11 @@
       <c r="G114" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="2">
+        <v>828185.13959999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -3834,8 +4186,11 @@
       <c r="G115" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="2">
+        <v>298780.00880000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3857,8 +4212,11 @@
       <c r="G116" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="2">
+        <v>703480.38280000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3880,8 +4238,11 @@
       <c r="G117" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="2">
+        <v>852772.0395999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3903,8 +4264,11 @@
       <c r="G118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="2">
+        <v>725313.55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3926,8 +4290,11 @@
       <c r="G119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="2">
+        <v>365558.02920000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3949,8 +4316,11 @@
       <c r="G120" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="2">
+        <v>426828.58399999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3972,8 +4342,11 @@
       <c r="G121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="2">
+        <v>241935.09600000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -3995,8 +4368,11 @@
       <c r="G122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="2">
+        <v>128835.356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -4018,8 +4394,11 @@
       <c r="G123" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="2">
+        <v>535404.33439999993</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -4041,8 +4420,11 @@
       <c r="G124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="2">
+        <v>924172.39720000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -4061,8 +4443,11 @@
       <c r="G125" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="2">
+        <v>198072.06640000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -4084,8 +4469,11 @@
       <c r="G126" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="2">
+        <v>382867.20679999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -4107,8 +4495,11 @@
       <c r="G127" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="2">
+        <v>244295.43840000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -4130,8 +4521,11 @@
       <c r="G128" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="2">
+        <v>806647.01520000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -4153,8 +4547,11 @@
       <c r="G129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="2">
+        <v>72875.57160000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -4176,8 +4573,11 @@
       <c r="G130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="2">
+        <v>180369.49840000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -4199,8 +4599,11 @@
       <c r="G131" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="2">
+        <v>129720.4844</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>98</v>
       </c>
@@ -4222,8 +4625,11 @@
       <c r="G132" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="2">
+        <v>11211.626399999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4245,8 +4651,11 @@
       <c r="G133" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="2">
+        <v>353657.96960000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4268,8 +4677,11 @@
       <c r="G134" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4291,8 +4703,11 @@
       <c r="G135" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="2">
+        <v>71793.748000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -4314,8 +4729,11 @@
       <c r="G136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="2">
+        <v>211447.34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4337,8 +4755,11 @@
       <c r="G137" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="2">
+        <v>772422.05040000007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4360,8 +4781,11 @@
       <c r="G138" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="2">
+        <v>87234.321199999991</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -4383,8 +4807,11 @@
       <c r="G139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="2">
+        <v>951414.68239999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -4406,17 +4833,17 @@
       <c r="G140" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="2">
+        <v>155290.86040000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141">
         <v>30.59</v>
       </c>
-      <c r="C141">
-        <v>39.35</v>
-      </c>
       <c r="D141">
         <v>17.89</v>
       </c>
@@ -4429,8 +4856,11 @@
       <c r="G141" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="2">
+        <v>226789.5656</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -4452,8 +4882,11 @@
       <c r="G142" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="2">
+        <v>202596.05600000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -4475,8 +4908,11 @@
       <c r="G143" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="2">
+        <v>374606.00840000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -4498,8 +4934,11 @@
       <c r="G144" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="2">
+        <v>849624.91639999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -4521,8 +4960,11 @@
       <c r="G145" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="2">
+        <v>88709.535199999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -4544,8 +4986,11 @@
       <c r="G146" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="2">
+        <v>584873.17720000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -4567,8 +5012,11 @@
       <c r="G147" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="2">
+        <v>456431.21159999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -4587,8 +5035,11 @@
       <c r="G148" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="2">
+        <v>628047.77359999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -4610,8 +5061,11 @@
       <c r="G149" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="2">
+        <v>570907.81799999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>115</v>
       </c>
@@ -4633,8 +5087,11 @@
       <c r="G150" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="2">
+        <v>530683.6496</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -4656,8 +5113,11 @@
       <c r="G151" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="2">
+        <v>564711.9192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -4676,8 +5136,11 @@
       <c r="G152" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="2">
+        <v>864082.01360000006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -4699,8 +5162,11 @@
       <c r="G153" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="2">
+        <v>912469.03280000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -4722,8 +5188,11 @@
       <c r="G154" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="2">
+        <v>913649.20400000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -4745,8 +5214,11 @@
       <c r="G155" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="2">
+        <v>883554.83840000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -4768,8 +5240,11 @@
       <c r="G156" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="2">
+        <v>921418.66440000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -4791,8 +5266,11 @@
       <c r="G157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="2">
+        <v>860738.19519999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -4814,8 +5292,11 @@
       <c r="G158" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="2">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -4837,8 +5318,11 @@
       <c r="G159" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="2">
+        <v>519078.63280000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -4860,8 +5344,11 @@
       <c r="G160" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="2">
+        <v>273504.67560000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>113</v>
       </c>
@@ -4883,8 +5370,11 @@
       <c r="G161" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="2">
+        <v>237214.4112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>156</v>
       </c>
@@ -4906,8 +5396,11 @@
       <c r="G162" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="2">
+        <v>557139.15399999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>157</v>
       </c>
@@ -4929,8 +5422,11 @@
       <c r="G163" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="2">
+        <v>905584.70079999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -4952,8 +5448,11 @@
       <c r="G164" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="2">
+        <v>627949.42599999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>72</v>
       </c>
@@ -4975,8 +5474,11 @@
       <c r="G165" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="2">
+        <v>903912.7916</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -4998,8 +5500,11 @@
       <c r="G166" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="2">
+        <v>434991.43479999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -5021,8 +5526,11 @@
       <c r="G167" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="2">
+        <v>754817.83000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>160</v>
       </c>
@@ -5044,8 +5552,11 @@
       <c r="G168" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="2">
+        <v>957905.62400000007</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>161</v>
       </c>
@@ -5067,8 +5578,11 @@
       <c r="G169" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="2">
+        <v>616836.14720000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>86</v>
       </c>
@@ -5090,8 +5604,11 @@
       <c r="G170" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="2">
+        <v>962724.65639999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -5110,8 +5627,11 @@
       <c r="G171" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="2">
+        <v>71203.662400000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>136</v>
       </c>
@@ -5133,8 +5653,11 @@
       <c r="G172" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="2">
+        <v>787862.62360000005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>163</v>
       </c>
@@ -5156,8 +5679,11 @@
       <c r="G173" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="2">
+        <v>331333.06439999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>164</v>
       </c>
@@ -5179,8 +5705,11 @@
       <c r="G174" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="2">
+        <v>6785.9843999999994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>165</v>
       </c>
@@ -5202,8 +5731,11 @@
       <c r="G175" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="2">
+        <v>494196.69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>166</v>
       </c>
@@ -5225,8 +5757,11 @@
       <c r="G176" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="2">
+        <v>311466.8492</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>167</v>
       </c>
@@ -5248,8 +5783,11 @@
       <c r="G177" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="2">
+        <v>841953.80359999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>168</v>
       </c>
@@ -5271,8 +5809,11 @@
       <c r="G178" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="2">
+        <v>246950.8236</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>169</v>
       </c>
@@ -5294,8 +5835,11 @@
       <c r="G179" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="2">
+        <v>159519.80719999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>170</v>
       </c>
@@ -5317,8 +5861,11 @@
       <c r="G180" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="2">
+        <v>659814.04840000009</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>171</v>
       </c>
@@ -5340,8 +5887,11 @@
       <c r="G181" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="2">
+        <v>104740.194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>172</v>
       </c>
@@ -5363,8 +5913,11 @@
       <c r="G182" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="2">
+        <v>365262.98639999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>173</v>
       </c>
@@ -5386,8 +5939,11 @@
       <c r="G183" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="2">
+        <v>841658.76080000005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>40</v>
       </c>
@@ -5409,8 +5965,11 @@
       <c r="G184" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="2">
+        <v>598936.88399999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -5432,8 +5991,11 @@
       <c r="G185" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="2">
+        <v>911288.86159999995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>145</v>
       </c>
@@ -5455,8 +6017,11 @@
       <c r="G186" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="2">
+        <v>885030.05239999993</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>175</v>
       </c>
@@ -5478,8 +6043,11 @@
       <c r="G187" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="2">
+        <v>745671.50319999992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>176</v>
       </c>
@@ -5487,7 +6055,7 @@
         <v>22.7</v>
       </c>
       <c r="C188">
-        <v>37.35</v>
+        <v>379</v>
       </c>
       <c r="D188">
         <v>71.48</v>
@@ -5501,8 +6069,11 @@
       <c r="G188" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="2">
+        <v>523307.5796</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>177</v>
       </c>
@@ -5524,8 +6095,11 @@
       <c r="G189" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="2">
+        <v>108182.36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>178</v>
       </c>
@@ -5547,8 +6121,11 @@
       <c r="G190" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="2">
+        <v>652929.71640000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>179</v>
       </c>
@@ -5570,8 +6147,11 @@
       <c r="G191" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="2">
+        <v>466659.36200000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>180</v>
       </c>
@@ -5593,8 +6173,11 @@
       <c r="G192" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="2">
+        <v>760226.94799999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -5616,8 +6199,11 @@
       <c r="G193" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="2">
+        <v>199153.89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>182</v>
       </c>
@@ -5639,8 +6225,11 @@
       <c r="G194" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="2">
+        <v>574940.06960000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>183</v>
       </c>
@@ -5662,8 +6251,11 @@
       <c r="G195" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="2">
+        <v>371655.58039999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>117</v>
       </c>
@@ -5682,8 +6274,11 @@
       <c r="G196" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="2">
+        <v>123980</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>112</v>
       </c>
@@ -5705,8 +6300,11 @@
       <c r="G197" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="2">
+        <v>356608.39759999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>184</v>
       </c>
@@ -5728,8 +6326,11 @@
       <c r="G198" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="2">
+        <v>628146.12119999994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>185</v>
       </c>
@@ -5751,8 +6352,11 @@
       <c r="G199" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="2">
+        <v>667583.50879999995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>186</v>
       </c>
@@ -5774,8 +6378,11 @@
       <c r="G200" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="2">
+        <v>424959.97960000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>187</v>
       </c>
@@ -5797,8 +6404,11 @@
       <c r="G201" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="2">
+        <v>89693.011199999994</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -5820,8 +6430,11 @@
       <c r="G202" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="2">
+        <v>263669.91560000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>188</v>
       </c>
@@ -5843,8 +6456,11 @@
       <c r="G203" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="2">
+        <v>4917.38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>124</v>
       </c>
@@ -5866,8 +6482,11 @@
       <c r="G204" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="2">
+        <v>74350.785600000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>189</v>
       </c>
@@ -5889,8 +6508,11 @@
       <c r="G205" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="2">
+        <v>296222.97120000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>190</v>
       </c>
@@ -5912,8 +6534,11 @@
       <c r="G206" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="2">
+        <v>736525.1764</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>191</v>
       </c>
@@ -5935,8 +6560,11 @@
       <c r="G207" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="2">
+        <v>201219.18960000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>192</v>
       </c>
@@ -5955,8 +6583,11 @@
       <c r="G208" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="2">
+        <v>446989.84200000006</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>193</v>
       </c>
@@ -5978,8 +6609,11 @@
       <c r="G209" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="2">
+        <v>446399.75640000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>194</v>
       </c>
@@ -6001,8 +6635,11 @@
       <c r="G210" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="2">
+        <v>222560.6188</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>195</v>
       </c>
@@ -6024,8 +6661,11 @@
       <c r="G211" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="2">
+        <v>980918.96239999996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -6047,8 +6687,11 @@
       <c r="G212" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="2">
+        <v>390144.92920000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>196</v>
       </c>
@@ -6070,8 +6713,11 @@
       <c r="G213" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="2">
+        <v>249016.1232</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>197</v>
       </c>
@@ -6093,8 +6739,11 @@
       <c r="G214" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="2">
+        <v>697087.78879999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>198</v>
       </c>
@@ -6113,8 +6762,11 @@
       <c r="G215" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="2">
+        <v>870572.95519999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>43</v>
       </c>
@@ -6136,8 +6788,11 @@
       <c r="G216" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="2">
+        <v>676631.48800000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>199</v>
       </c>
@@ -6159,8 +6814,11 @@
       <c r="G217" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="2">
+        <v>973542.89240000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>65</v>
       </c>
@@ -6182,8 +6840,11 @@
       <c r="G218" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="2">
+        <v>161486.75920000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>133</v>
       </c>
@@ -6205,8 +6866,11 @@
       <c r="G219" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="2">
+        <v>939711.31799999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>200</v>
       </c>
@@ -6228,8 +6892,11 @@
       <c r="G220" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="2">
+        <v>388866.41039999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>201</v>
       </c>
@@ -6251,8 +6918,11 @@
       <c r="G221" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="2">
+        <v>288355.16320000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>202</v>
       </c>
@@ -6274,8 +6944,11 @@
       <c r="G222" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="2">
+        <v>50944.056799999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -6297,8 +6970,11 @@
       <c r="G223" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="2">
+        <v>824349.58319999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>203</v>
       </c>
@@ -6320,8 +6996,11 @@
       <c r="G224" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="2">
+        <v>258457.49280000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>72</v>
       </c>
@@ -6343,8 +7022,11 @@
       <c r="G225" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="2">
+        <v>325825.59880000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>204</v>
       </c>
@@ -6366,8 +7048,11 @@
       <c r="G226" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="2">
+        <v>668370.2895999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -6389,8 +7074,11 @@
       <c r="G227" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="2">
+        <v>650077.63599999994</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>205</v>
       </c>
@@ -6412,8 +7100,11 @@
       <c r="G228" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="2">
+        <v>514456.29560000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>206</v>
       </c>
@@ -6435,8 +7126,11 @@
       <c r="G229" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="2">
+        <v>949447.73040000012</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>90</v>
       </c>
@@ -6458,8 +7152,11 @@
       <c r="G230" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="2">
+        <v>237706.14920000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>72</v>
       </c>
@@ -6481,8 +7178,11 @@
       <c r="G231" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="2">
+        <v>609951.81520000007</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>207</v>
       </c>
@@ -6504,8 +7204,11 @@
       <c r="G232" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="2">
+        <v>467544.49040000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>208</v>
       </c>
@@ -6524,8 +7227,11 @@
       <c r="G233" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="2">
+        <v>649782.5932</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>95</v>
       </c>
@@ -6547,8 +7253,11 @@
       <c r="G234" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="2">
+        <v>304385.82199999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -6570,8 +7279,11 @@
       <c r="G235" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="2">
+        <v>333398.364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>210</v>
       </c>
@@ -6593,8 +7305,11 @@
       <c r="G236" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="2">
+        <v>163945.44920000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>211</v>
       </c>
@@ -6616,8 +7331,11 @@
       <c r="G237" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="2">
+        <v>634538.71519999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>164</v>
       </c>
@@ -6639,8 +7357,11 @@
       <c r="G238" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="2">
+        <v>792484.9608</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>212</v>
       </c>
@@ -6662,8 +7383,11 @@
       <c r="G239" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="2">
+        <v>797303.99319999991</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>213</v>
       </c>
@@ -6685,8 +7409,11 @@
       <c r="G240" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="2">
+        <v>397422.65159999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>214</v>
       </c>
@@ -6708,8 +7435,11 @@
       <c r="G241" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="2">
+        <v>743212.81319999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>215</v>
       </c>
@@ -6731,8 +7461,11 @@
       <c r="G242" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="2">
+        <v>236821.0208</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>216</v>
       </c>
@@ -6754,8 +7487,11 @@
       <c r="G243" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="2">
+        <v>770356.75080000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>217</v>
       </c>
@@ -6777,8 +7513,11 @@
       <c r="G244" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="2">
+        <v>455349.38799999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>218</v>
       </c>
@@ -6800,8 +7539,11 @@
       <c r="G245" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="2">
+        <v>38650.606800000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>219</v>
       </c>
@@ -6823,8 +7565,11 @@
       <c r="G246" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="2">
+        <v>89201.273200000011</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>135</v>
       </c>
@@ -6846,8 +7591,11 @@
       <c r="G247" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="2">
+        <v>532060.51600000006</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>220</v>
       </c>
@@ -6869,8 +7617,11 @@
       <c r="G248" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="2">
+        <v>439417.07679999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>113</v>
       </c>
@@ -6892,8 +7643,11 @@
       <c r="G249" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="2">
+        <v>554877.15919999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -6915,8 +7669,11 @@
       <c r="G250" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="2">
+        <v>469708.13760000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>222</v>
       </c>
@@ -6938,8 +7695,11 @@
       <c r="G251" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="2">
+        <v>125294.84240000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>193</v>
       </c>
@@ -6961,8 +7721,11 @@
       <c r="G252" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="2">
+        <v>732492.92480000004</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>223</v>
       </c>
@@ -6984,8 +7747,11 @@
       <c r="G253" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="2">
+        <v>911190.51400000008</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>224</v>
       </c>
@@ -7007,8 +7773,11 @@
       <c r="G254" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="2">
+        <v>239181.36320000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>151</v>
       </c>
@@ -7030,8 +7799,11 @@
       <c r="G255" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="2">
+        <v>954561.80560000008</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>85</v>
       </c>
@@ -7053,8 +7825,11 @@
       <c r="G256" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="2">
+        <v>182434.79800000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>225</v>
       </c>
@@ -7076,8 +7851,11 @@
       <c r="G257" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="2">
+        <v>450628.70319999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>226</v>
       </c>
@@ -7099,8 +7877,11 @@
       <c r="G258" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="2">
+        <v>562056.53399999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>227</v>
       </c>
@@ -7122,8 +7903,11 @@
       <c r="G259" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="2">
+        <v>626670.90720000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>228</v>
       </c>
@@ -7145,8 +7929,11 @@
       <c r="G260" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="2">
+        <v>711446.53840000008</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>229</v>
       </c>
@@ -7168,8 +7955,11 @@
       <c r="G261" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="2">
+        <v>914829.37520000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>94</v>
       </c>
@@ -7191,8 +7981,11 @@
       <c r="G262" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="2">
+        <v>824054.54040000006</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>230</v>
       </c>
@@ -7214,8 +8007,11 @@
       <c r="G263" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="2">
+        <v>5802.5083999999997</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>231</v>
       </c>
@@ -7237,8 +8033,11 @@
       <c r="G264" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="2">
+        <v>31077.841600000003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>232</v>
       </c>
@@ -7260,8 +8059,11 @@
       <c r="G265" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="2">
+        <v>268193.90519999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>233</v>
       </c>
@@ -7283,8 +8085,11 @@
       <c r="G266" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="2">
+        <v>416502.08600000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>234</v>
       </c>
@@ -7303,8 +8108,11 @@
       <c r="G267" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="2">
+        <v>527339.83120000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>235</v>
       </c>
@@ -7326,8 +8134,11 @@
       <c r="G268" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="2">
+        <v>934498.89520000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>47</v>
       </c>
@@ -7349,8 +8160,11 @@
       <c r="G269" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="2">
+        <v>106608.7984</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>236</v>
       </c>
@@ -7372,8 +8186,11 @@
       <c r="G270" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="2">
+        <v>263669.91560000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -7395,8 +8212,11 @@
       <c r="G271" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="2">
+        <v>599428.62200000009</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>237</v>
       </c>
@@ -7418,8 +8238,11 @@
       <c r="G272" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="2">
+        <v>220790.36199999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>190</v>
       </c>
@@ -7441,8 +8264,11 @@
       <c r="G273" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="2">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -7464,8 +8290,11 @@
       <c r="G274" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="2">
+        <v>14555.444799999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -7487,8 +8316,11 @@
       <c r="G275" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="2">
+        <v>765045.98040000012</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>239</v>
       </c>
@@ -7510,8 +8342,11 @@
       <c r="G276" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="2">
+        <v>472265.17520000006</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>240</v>
       </c>
@@ -7533,8 +8368,11 @@
       <c r="G277" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="2">
+        <v>309204.85440000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>241</v>
       </c>
@@ -7556,8 +8394,11 @@
       <c r="G278" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="2">
+        <v>791599.83239999996</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>135</v>
       </c>
@@ -7579,8 +8420,11 @@
       <c r="G279" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="2">
+        <v>895749.94079999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>242</v>
       </c>
@@ -7602,8 +8446,11 @@
       <c r="G280" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="2">
+        <v>216659.76280000003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>243</v>
       </c>
@@ -7625,8 +8472,11 @@
       <c r="G281" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="2">
+        <v>490164.43840000004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>244</v>
       </c>
@@ -7648,8 +8498,11 @@
       <c r="G282" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="2">
+        <v>770946.83640000003</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>245</v>
       </c>
@@ -7671,8 +8524,11 @@
       <c r="G283" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="2">
+        <v>603657.56880000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>246</v>
       </c>
@@ -7694,8 +8550,11 @@
       <c r="G284" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="2">
+        <v>712331.66680000012</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>247</v>
       </c>
@@ -7717,8 +8576,11 @@
       <c r="G285" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="2">
+        <v>439515.42439999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>248</v>
       </c>
@@ -7740,8 +8602,11 @@
       <c r="G286" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="2">
+        <v>880604.41040000005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>249</v>
       </c>
@@ -7763,8 +8628,11 @@
       <c r="G287" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="2">
+        <v>502949.62640000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>250</v>
       </c>
@@ -7786,8 +8654,11 @@
       <c r="G288" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="2">
+        <v>631293.24439999997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>251</v>
       </c>
@@ -7809,8 +8680,11 @@
       <c r="G289" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="2">
+        <v>760030.25280000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>252</v>
       </c>
@@ -7829,8 +8703,11 @@
       <c r="G290" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="2">
+        <v>781568.37719999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>253</v>
       </c>
@@ -7852,8 +8729,11 @@
       <c r="G291" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="2">
+        <v>84283.893200000006</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>232</v>
       </c>
@@ -7875,8 +8755,11 @@
       <c r="G292" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>254</v>
       </c>
@@ -7898,8 +8781,11 @@
       <c r="G293" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="2">
+        <v>392701.96679999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>26</v>
       </c>
@@ -7921,8 +8807,11 @@
       <c r="G294" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="2">
+        <v>590675.68560000008</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>200</v>
       </c>
@@ -7944,8 +8833,11 @@
       <c r="G295" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="2">
+        <v>432631.09240000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>255</v>
       </c>
@@ -7967,8 +8859,11 @@
       <c r="G296" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="2">
+        <v>929679.8628</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>256</v>
       </c>
@@ -7990,8 +8885,11 @@
       <c r="G297" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="2">
+        <v>490164.43840000004</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>257</v>
       </c>
@@ -8013,8 +8911,11 @@
       <c r="G298" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="2">
+        <v>663551.25719999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>258</v>
       </c>
@@ -8036,8 +8937,11 @@
       <c r="G299" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="2">
+        <v>232395.37880000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>259</v>
       </c>
@@ -8055,6 +8959,9 @@
       </c>
       <c r="G300" t="s">
         <v>13</v>
+      </c>
+      <c r="H300" s="2">
+        <v>20200</v>
       </c>
     </row>
   </sheetData>
